--- a/data/trans_orig/P39A2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A32B80E7-9A93-4CB4-A38A-7372B02BCA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F41929ED-86F7-42F1-AEEA-4AEF7FE27A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5794B922-30C0-46D1-AAB5-C4F5DD1175DF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E30BBDA-FD11-4AF4-BB44-62775C5997A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Población según si diría que sentirse débil mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 89,97%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>63,6%</t>
   </si>
   <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
   </si>
   <si>
     <t>64,44%</t>
   </si>
   <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
   </si>
   <si>
     <t>64,06%</t>
   </si>
   <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>36,4%</t>
   </si>
   <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
   </si>
   <si>
     <t>35,56%</t>
   </si>
   <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
   </si>
   <si>
     <t>35,94%</t>
   </si>
   <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>74,48%</t>
   </si>
   <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
   </si>
   <si>
     <t>70,04%</t>
   </si>
   <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
   </si>
   <si>
     <t>72,19%</t>
   </si>
   <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
   </si>
   <si>
     <t>25,52%</t>
   </si>
   <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
   </si>
   <si>
     <t>27,81%</t>
   </si>
   <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>79,59%</t>
   </si>
   <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
   </si>
   <si>
     <t>75,86%</t>
   </si>
   <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>77,7%</t>
   </si>
   <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
   </si>
   <si>
     <t>24,14%</t>
   </si>
   <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
   </si>
   <si>
     <t>22,3%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,55 @@
     <t>64,47%</t>
   </si>
   <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>66,19%</t>
   </si>
   <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
   </si>
   <si>
     <t>65,4%</t>
   </si>
   <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
   </si>
   <si>
     <t>35,53%</t>
   </si>
   <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
   </si>
   <si>
     <t>33,81%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
   </si>
   <si>
     <t>34,6%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,103 +308,109 @@
     <t>69,87%</t>
   </si>
   <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
   </si>
   <si>
     <t>64,46%</t>
   </si>
   <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
   </si>
   <si>
     <t>66,98%</t>
   </si>
   <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
   </si>
   <si>
     <t>30,13%</t>
   </si>
   <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
   </si>
   <si>
     <t>35,54%</t>
   </si>
   <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
   </si>
   <si>
     <t>68,96%</t>
   </si>
   <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
   </si>
   <si>
     <t>70,5%</t>
   </si>
   <si>
-    <t>72,29%</t>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
   </si>
   <si>
     <t>29,5%</t>
   </si>
   <si>
-    <t>27,71%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE718DC9-E8C9-434F-AE1D-4E36079B6164}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265D3021-1C66-4C7A-AD5B-964885443CE2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1751,10 +1757,10 @@
         <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1775,13 @@
         <v>858928</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1655</v>
@@ -1784,13 +1790,13 @@
         <v>1062899</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>2591</v>
@@ -1799,13 +1805,13 @@
         <v>1921828</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,7 +1867,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A2_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F41929ED-86F7-42F1-AEEA-4AEF7FE27A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD1CF2F-6541-4397-A8B1-085E1D630D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E30BBDA-FD11-4AF4-BB44-62775C5997A7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{873F1E29-A19D-4B81-8223-6DC90EB230E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>74,48%</t>
@@ -188,7 +188,7 @@
     <t>30,68%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>79,59%</t>
@@ -245,7 +245,7 @@
     <t>24,22%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>64,47%</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265D3021-1C66-4C7A-AD5B-964885443CE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE59273E-E8A3-4E11-955F-6E3F2D9E20EF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD1CF2F-6541-4397-A8B1-085E1D630D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02D0A73D-70AA-4FF4-BF11-AC9A26948001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{873F1E29-A19D-4B81-8223-6DC90EB230E3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C177FE4-25E8-4405-BCD0-A88E167AAD05}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Población según si diría que sentirse débil mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 89,97%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>63,6%</t>
   </si>
   <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
   </si>
   <si>
     <t>64,44%</t>
   </si>
   <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
   </si>
   <si>
     <t>64,06%</t>
   </si>
   <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>36,4%</t>
   </si>
   <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
   </si>
   <si>
     <t>35,56%</t>
   </si>
   <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
   </si>
   <si>
     <t>35,94%</t>
   </si>
   <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>74,48%</t>
   </si>
   <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
   </si>
   <si>
     <t>70,04%</t>
   </si>
   <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
   </si>
   <si>
     <t>72,19%</t>
   </si>
   <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
   </si>
   <si>
     <t>25,52%</t>
   </si>
   <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
   </si>
   <si>
     <t>27,81%</t>
   </si>
   <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,55 @@
     <t>79,59%</t>
   </si>
   <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
   </si>
   <si>
     <t>75,86%</t>
   </si>
   <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
   </si>
   <si>
     <t>77,7%</t>
   </si>
   <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
   </si>
   <si>
     <t>24,14%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
   </si>
   <si>
     <t>22,3%</t>
   </si>
   <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>64,47%</t>
   </si>
   <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
   <si>
     <t>66,19%</t>
   </si>
   <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
   </si>
   <si>
     <t>65,4%</t>
   </si>
   <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
   </si>
   <si>
     <t>35,53%</t>
   </si>
   <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
   </si>
   <si>
     <t>33,81%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
   </si>
   <si>
     <t>34,6%</t>
   </si>
   <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,103 @@
     <t>69,87%</t>
   </si>
   <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
   </si>
   <si>
     <t>64,46%</t>
   </si>
   <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
   </si>
   <si>
     <t>66,98%</t>
   </si>
   <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
   </si>
   <si>
     <t>30,13%</t>
   </si>
   <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
   </si>
   <si>
     <t>35,54%</t>
   </si>
   <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
   </si>
   <si>
     <t>68,96%</t>
   </si>
   <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
   </si>
   <si>
     <t>70,5%</t>
   </si>
   <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
+    <t>72,29%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
   </si>
   <si>
     <t>29,5%</t>
   </si>
   <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
+    <t>27,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE59273E-E8A3-4E11-955F-6E3F2D9E20EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1FA5A8-C60F-4271-B0F3-B53E6BF16A1F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1757,10 +1751,10 @@
         <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1769,13 @@
         <v>858928</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1655</v>
@@ -1790,13 +1784,13 @@
         <v>1062899</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>2591</v>
@@ -1805,13 +1799,13 @@
         <v>1921828</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A2_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02D0A73D-70AA-4FF4-BF11-AC9A26948001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D294B0D-8B42-40EB-A9F2-2379C2451588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C177FE4-25E8-4405-BCD0-A88E167AAD05}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{01624A01-C3C6-499C-BBB5-7C002DEFA85D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según si diría que sentirse débil mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 89,97%)</t>
   </si>
@@ -65,346 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
   </si>
   <si>
     <t>69,9%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
   </si>
   <si>
     <t>30,1%</t>
   </si>
   <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1FA5A8-C60F-4271-B0F3-B53E6BF16A1F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB668C0-A9FE-41B1-A07A-F3C35E32E352}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -937,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>59</v>
+        <v>441</v>
       </c>
       <c r="D4" s="7">
-        <v>57807</v>
+        <v>409266</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="I4" s="7">
-        <v>70890</v>
+        <v>402887</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>179</v>
+        <v>1141</v>
       </c>
       <c r="N4" s="7">
-        <v>128697</v>
+        <v>812152</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="D5" s="7">
-        <v>33081</v>
+        <v>154287</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="I5" s="7">
-        <v>39121</v>
+        <v>185667</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>124</v>
+        <v>569</v>
       </c>
       <c r="N5" s="7">
-        <v>72203</v>
+        <v>339954</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>102</v>
+        <v>644</v>
       </c>
       <c r="D6" s="7">
-        <v>90888</v>
+        <v>563553</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1054,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>201</v>
+        <v>1066</v>
       </c>
       <c r="I6" s="7">
-        <v>110011</v>
+        <v>588554</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1069,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>303</v>
+        <v>1710</v>
       </c>
       <c r="N6" s="7">
-        <v>200900</v>
+        <v>1152106</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1092,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>382</v>
+        <v>665</v>
       </c>
       <c r="D7" s="7">
-        <v>361685</v>
+        <v>914207</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1107,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>580</v>
+        <v>996</v>
       </c>
       <c r="I7" s="7">
-        <v>362973</v>
+        <v>662269</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1122,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>962</v>
+        <v>1661</v>
       </c>
       <c r="N7" s="7">
-        <v>724658</v>
+        <v>1576475</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1143,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="D8" s="7">
-        <v>123945</v>
+        <v>196338</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1158,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>285</v>
+        <v>396</v>
       </c>
       <c r="I8" s="7">
-        <v>155251</v>
+        <v>219677</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1173,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>445</v>
+        <v>614</v>
       </c>
       <c r="N8" s="7">
-        <v>279195</v>
+        <v>416016</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1194,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>542</v>
+        <v>883</v>
       </c>
       <c r="D9" s="7">
-        <v>485630</v>
+        <v>1110545</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1209,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>865</v>
+        <v>1392</v>
       </c>
       <c r="I9" s="7">
-        <v>518224</v>
+        <v>881946</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1407</v>
+        <v>2275</v>
       </c>
       <c r="N9" s="7">
-        <v>1003853</v>
+        <v>1992491</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1247,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>665</v>
+        <v>395</v>
       </c>
       <c r="D10" s="7">
-        <v>757400</v>
+        <v>420677</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1262,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>996</v>
+        <v>569</v>
       </c>
       <c r="I10" s="7">
-        <v>740207</v>
+        <v>591369</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1277,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1661</v>
+        <v>964</v>
       </c>
       <c r="N10" s="7">
-        <v>1497607</v>
+        <v>1012046</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1298,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="D11" s="7">
-        <v>194270</v>
+        <v>240416</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1313,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="I11" s="7">
-        <v>235513</v>
+        <v>254631</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1328,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="N11" s="7">
-        <v>429783</v>
+        <v>495047</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1349,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>883</v>
+        <v>629</v>
       </c>
       <c r="D12" s="7">
-        <v>951670</v>
+        <v>661093</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1364,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1392</v>
+        <v>968</v>
       </c>
       <c r="I12" s="7">
-        <v>975720</v>
+        <v>846000</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2275</v>
+        <v>1597</v>
       </c>
       <c r="N12" s="7">
-        <v>1927390</v>
+        <v>1507093</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1402,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>395</v>
+        <v>629</v>
       </c>
       <c r="D13" s="7">
-        <v>438883</v>
+        <v>593645</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1417,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>569</v>
+        <v>880</v>
       </c>
       <c r="I13" s="7">
-        <v>533122</v>
+        <v>587425</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1432,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>964</v>
+        <v>1509</v>
       </c>
       <c r="N13" s="7">
-        <v>972005</v>
+        <v>1181070</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1453,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>241872</v>
+        <v>256152</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1468,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>399</v>
+        <v>494</v>
       </c>
       <c r="I14" s="7">
-        <v>272310</v>
+        <v>386183</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1483,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>633</v>
+        <v>775</v>
       </c>
       <c r="N14" s="7">
-        <v>514183</v>
+        <v>642335</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1504,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>629</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>680755</v>
+        <v>849797</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1519,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>968</v>
+        <v>1374</v>
       </c>
       <c r="I15" s="7">
-        <v>805432</v>
+        <v>973608</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1597</v>
+        <v>2284</v>
       </c>
       <c r="N15" s="7">
-        <v>1486188</v>
+        <v>1823405</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1551,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>629</v>
+        <v>2130</v>
       </c>
       <c r="D16" s="7">
-        <v>616341</v>
+        <v>2337794</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>3145</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2243949</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>880</v>
-      </c>
-      <c r="I16" s="7">
-        <v>654348</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>5275</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4581743</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>1509</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1270689</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>281</v>
+        <v>936</v>
       </c>
       <c r="D17" s="7">
-        <v>265760</v>
+        <v>847193</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>1655</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1046159</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>494</v>
-      </c>
-      <c r="I17" s="7">
-        <v>360704</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2591</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1893352</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>775</v>
-      </c>
-      <c r="N17" s="7">
-        <v>626464</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3066</v>
       </c>
       <c r="D18" s="7">
-        <v>882101</v>
+        <v>3184987</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1374</v>
+        <v>4800</v>
       </c>
       <c r="I18" s="7">
-        <v>1015052</v>
+        <v>3290108</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2284</v>
+        <v>7866</v>
       </c>
       <c r="N18" s="7">
-        <v>1897153</v>
+        <v>6475095</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1705,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2130</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2232116</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3145</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2361540</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5275</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4593655</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>936</v>
-      </c>
-      <c r="D20" s="7">
-        <v>858928</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1655</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1062899</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2591</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1921828</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3066</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3091044</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>4800</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3424439</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>7866</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6515483</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
